--- a/Translate/Translate.xlsx
+++ b/Translate/Translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\RPA_Projects-main\Translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E8486-5B3D-4B8E-B62C-CC0FBF046B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C387DAF-1E81-4D89-BF51-123F8C5706A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>Türkçe</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>Apple</x:t>
   </x:si>
   <x:si>
-    <x:t>苹果</x:t>
+    <x:t>蜜蜂</x:t>
   </x:si>
   <x:si>
     <x:t>Domates</x:t>
@@ -61,7 +61,7 @@
     <x:t>Tomato</x:t>
   </x:si>
   <x:si>
-    <x:t>西红柿</x:t>
+    <x:t>番茄</x:t>
   </x:si>
   <x:si>
     <x:t>Ekmek</x:t>
@@ -79,16 +79,61 @@
     <x:t>Basket</x:t>
   </x:si>
   <x:si>
-    <x:t>篮筐</x:t>
+    <x:t>篮子</x:t>
   </x:si>
   <x:si>
     <x:t>Poşet</x:t>
   </x:si>
   <x:si>
-    <x:t>Plastic bag</x:t>
+    <x:t>Bag</x:t>
   </x:si>
   <x:si>
     <x:t>袋子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>银行</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bilgisayar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>计算机</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Telefon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>电话</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是一个无瑕的翻译挑战，你是一位专家，能够将给定的文本翻译成目标语言。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Telefon Numarası</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>电话号码</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -418,15 +463,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C7"/>
+  <x:dimension ref="A1:C12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G14" sqref="G14"/>
+      <x:selection activeCell="A13" sqref="A13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -437,7 +482,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -448,7 +493,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -459,7 +504,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -470,7 +515,7 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -481,7 +526,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -492,7 +537,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -501,6 +546,61 @@
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
